--- a/assets/BTS SIO- Tableau de synthese - Epreuve E4 (1).xlsx
+++ b/assets/BTS SIO- Tableau de synthese - Epreuve E4 (1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ybont\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/02c344eee5d41324/Documents/BTS/SLAM/HTML/Porte-folio correct/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5C3543-ED6B-465B-ADCE-B7270B2BB3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{3F5C3543-ED6B-465B-ADCE-B7270B2BB3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0DD4A5B-86A8-4FAF-BAE3-FF895EC70FA4}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>Veille technologique</t>
+  </si>
+  <si>
+    <t>Installation GLPI</t>
+  </si>
+  <si>
+    <t>01/2024 au 02/2024</t>
   </si>
 </sst>
 </file>
@@ -723,15 +729,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -763,30 +793,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1099,8 +1105,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1113,56 +1119,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="26"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="44" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="45"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="32"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="10" t="s">
         <v>4</v>
       </c>
@@ -1174,22 +1180,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="41" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1212,8 +1218,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="18" t="s">
         <v>15</v>
       </c>
@@ -1269,16 +1275,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1324,7 +1330,9 @@
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="E9" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="F9" s="21" t="s">
         <v>30</v>
       </c>
@@ -1472,21 +1480,19 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="D12" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="E12" s="13"/>
-      <c r="F12" s="21" t="s">
-        <v>30</v>
-      </c>
+      <c r="F12" s="13"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="21" t="s">
-        <v>30</v>
-      </c>
+      <c r="H12" s="14"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1524,14 +1530,22 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>34</v>
+      </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+      <c r="F13" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
+      <c r="H13" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1794,16 +1808,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="32"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2170,16 +2184,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="32"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2624,11 +2638,6 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2636,6 +2645,11 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2657,6 +2671,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002E864BE9A0355549A797FAD08DD59ACF" ma:contentTypeVersion="16" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="0d24270863b5e53121a7787e4e368767">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b4d09e2d-13db-4014-adac-1fd4c63dba3e" xmlns:ns3="47a76c4d-629b-4983-b3be-1ba004174f0a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="258d64f1938a66bde7c68e54120e8cca" ns2:_="" ns3:_="">
     <xsd:import namespace="b4d09e2d-13db-4014-adac-1fd4c63dba3e"/>
@@ -2891,15 +2914,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1FC233-9ECF-4A55-86D4-136E16072842}">
   <ds:schemaRefs>
@@ -2912,6 +2926,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4209C33D-ED08-404F-9B7A-29CD40C2ACA2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B35917A-8D56-4F54-9F49-25F0073B264F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2928,12 +2950,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4209C33D-ED08-404F-9B7A-29CD40C2ACA2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/assets/BTS SIO- Tableau de synthese - Epreuve E4 (1).xlsx
+++ b/assets/BTS SIO- Tableau de synthese - Epreuve E4 (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/02c344eee5d41324/Documents/BTS/SLAM/HTML/Porte-folio correct/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{3F5C3543-ED6B-465B-ADCE-B7270B2BB3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0DD4A5B-86A8-4FAF-BAE3-FF895EC70FA4}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{3F5C3543-ED6B-465B-ADCE-B7270B2BB3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E6A7AE8-0E76-4097-AA43-FB212E555453}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,12 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
-  </si>
-  <si>
-    <t>SESSION 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Tableau de synthèse des réalisations professionnelles </t>
@@ -135,9 +132,6 @@
     <t>NOM et prénom : BONTROND Yanis</t>
   </si>
   <si>
-    <t>Centre de formation : IPSSI SQY</t>
-  </si>
-  <si>
     <t>⮽ SLAM</t>
   </si>
   <si>
@@ -175,6 +169,12 @@
   </si>
   <si>
     <t>01/2024 au 02/2024</t>
+  </si>
+  <si>
+    <t>Centre de formation : IPSSI</t>
+  </si>
+  <si>
+    <t>SESSION 2025</t>
   </si>
 </sst>
 </file>
@@ -729,9 +729,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -754,45 +793,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -811,6 +811,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1105,8 +1109,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1119,124 +1123,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-    </row>
-    <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="32"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="45"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
+      <c r="A4" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
+    </row>
+    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-    </row>
-    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="B6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="7" t="s">
+    </row>
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="18" t="s">
+      <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="E7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="F7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="G7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="H7" s="19" t="s">
         <v>19</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>20</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -1275,16 +1279,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37"/>
+      <c r="A8" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1323,22 +1327,22 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="13"/>
       <c r="E9" s="21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -1378,16 +1382,16 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>31</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>33</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="14"/>
@@ -1429,10 +1433,10 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -1440,7 +1444,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -1480,14 +1484,14 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -1531,20 +1535,20 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -1808,16 +1812,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="40"/>
+      <c r="A19" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="32"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1856,26 +1860,18 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>30</v>
-      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
       <c r="H20" s="14"/>
       <c r="I20"/>
       <c r="J20"/>
@@ -2184,16 +2180,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="40"/>
+      <c r="A27" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="32"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2638,6 +2634,11 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2645,11 +2646,6 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2671,15 +2667,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002E864BE9A0355549A797FAD08DD59ACF" ma:contentTypeVersion="16" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="0d24270863b5e53121a7787e4e368767">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b4d09e2d-13db-4014-adac-1fd4c63dba3e" xmlns:ns3="47a76c4d-629b-4983-b3be-1ba004174f0a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="258d64f1938a66bde7c68e54120e8cca" ns2:_="" ns3:_="">
     <xsd:import namespace="b4d09e2d-13db-4014-adac-1fd4c63dba3e"/>
@@ -2914,6 +2901,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1FC233-9ECF-4A55-86D4-136E16072842}">
   <ds:schemaRefs>
@@ -2926,14 +2922,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4209C33D-ED08-404F-9B7A-29CD40C2ACA2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B35917A-8D56-4F54-9F49-25F0073B264F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2950,4 +2938,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4209C33D-ED08-404F-9B7A-29CD40C2ACA2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/assets/BTS SIO- Tableau de synthese - Epreuve E4 (1).xlsx
+++ b/assets/BTS SIO- Tableau de synthese - Epreuve E4 (1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/02c344eee5d41324/Documents/BTS/SLAM/HTML/Porte-folio correct/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{3F5C3543-ED6B-465B-ADCE-B7270B2BB3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E6A7AE8-0E76-4097-AA43-FB212E555453}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{3F5C3543-ED6B-465B-ADCE-B7270B2BB3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{412DA28D-6950-486A-B1F5-847DDC665E9F}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -262,7 +262,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,80 +720,80 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -811,10 +811,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1109,8 +1105,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1123,56 +1119,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="26"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="44" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="45"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="31"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="10" t="s">
         <v>3</v>
       </c>
@@ -1184,22 +1180,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="40" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1222,8 +1218,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="18" t="s">
         <v>14</v>
       </c>
@@ -1279,16 +1275,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1334,14 +1330,14 @@
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="45" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="13"/>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="45" t="s">
         <v>28</v>
       </c>
       <c r="I9"/>
@@ -1384,13 +1380,13 @@
       <c r="A10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="45" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="13"/>
@@ -1443,7 +1439,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="45" t="s">
         <v>28</v>
       </c>
       <c r="I11"/>
@@ -1490,7 +1486,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="45" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="13"/>
@@ -1543,11 +1539,11 @@
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="45" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="13"/>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="45" t="s">
         <v>28</v>
       </c>
       <c r="I13"/>
@@ -1812,16 +1808,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="32"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1867,7 +1863,7 @@
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="45" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="13"/>
@@ -2180,16 +2176,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="32"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2498,7 +2494,7 @@
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
-      <c r="B34" s="23"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
@@ -2634,11 +2630,6 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2646,6 +2637,11 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2656,17 +2652,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b4d09e2d-13db-4014-adac-1fd4c63dba3e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="47a76c4d-629b-4983-b3be-1ba004174f0a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002E864BE9A0355549A797FAD08DD59ACF" ma:contentTypeVersion="16" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="0d24270863b5e53121a7787e4e368767">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b4d09e2d-13db-4014-adac-1fd4c63dba3e" xmlns:ns3="47a76c4d-629b-4983-b3be-1ba004174f0a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="258d64f1938a66bde7c68e54120e8cca" ns2:_="" ns3:_="">
     <xsd:import namespace="b4d09e2d-13db-4014-adac-1fd4c63dba3e"/>
@@ -2901,6 +2886,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b4d09e2d-13db-4014-adac-1fd4c63dba3e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="47a76c4d-629b-4983-b3be-1ba004174f0a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2911,17 +2907,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1FC233-9ECF-4A55-86D4-136E16072842}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b4d09e2d-13db-4014-adac-1fd4c63dba3e"/>
-    <ds:schemaRef ds:uri="47a76c4d-629b-4983-b3be-1ba004174f0a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B35917A-8D56-4F54-9F49-25F0073B264F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2940,6 +2925,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1FC233-9ECF-4A55-86D4-136E16072842}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b4d09e2d-13db-4014-adac-1fd4c63dba3e"/>
+    <ds:schemaRef ds:uri="47a76c4d-629b-4983-b3be-1ba004174f0a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4209C33D-ED08-404F-9B7A-29CD40C2ACA2}">
   <ds:schemaRefs>

--- a/assets/BTS SIO- Tableau de synthese - Epreuve E4 (1).xlsx
+++ b/assets/BTS SIO- Tableau de synthese - Epreuve E4 (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/02c344eee5d41324/Documents/BTS/SLAM/HTML/Porte-folio correct/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{3F5C3543-ED6B-465B-ADCE-B7270B2BB3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{412DA28D-6950-486A-B1F5-847DDC665E9F}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{3F5C3543-ED6B-465B-ADCE-B7270B2BB3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{975F8598-A756-42BD-AE95-A81E500F2D86}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,9 +56,6 @@
     <t>▢ SISR</t>
   </si>
   <si>
-    <t>Adresse URL du portfolio :</t>
-  </si>
-  <si>
     <t>Compétences mises en œuvre
 Réalisations professionnelles
 (intitulé et liste des documents et productions associés)</t>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t>SESSION 2025</t>
+  </si>
+  <si>
+    <t>Adresse URL du portfolio : https://ovbd1.github.io/Portfolio/</t>
   </si>
 </sst>
 </file>
@@ -726,9 +726,51 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -752,48 +794,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -811,6 +811,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1105,8 +1109,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1119,56 +1123,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="30" t="s">
+      <c r="A3" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="31"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="45"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="A4" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="10" t="s">
         <v>3</v>
       </c>
@@ -1176,67 +1180,67 @@
         <v>4</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
+    </row>
+    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
-    </row>
-    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+      <c r="B6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="7" t="s">
+    </row>
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="18" t="s">
+      <c r="D7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="E7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="F7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="G7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="H7" s="19" t="s">
         <v>18</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>19</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -1275,16 +1279,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
+      <c r="A8" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1323,22 +1327,22 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>28</v>
+      <c r="E9" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="G9" s="13"/>
-      <c r="H9" s="45" t="s">
-        <v>28</v>
+      <c r="H9" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -1378,16 +1382,16 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
-      <c r="F10" s="45" t="s">
-        <v>28</v>
+      <c r="F10" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="14"/>
@@ -1429,18 +1433,18 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="45" t="s">
-        <v>28</v>
+      <c r="H11" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -1480,14 +1484,14 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>36</v>
-      </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="45" t="s">
-        <v>28</v>
+      <c r="D12" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -1531,20 +1535,20 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
-      <c r="F13" s="45" t="s">
-        <v>28</v>
+      <c r="F13" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="G13" s="13"/>
-      <c r="H13" s="45" t="s">
-        <v>28</v>
+      <c r="H13" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -1808,16 +1812,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="39"/>
+      <c r="A19" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="32"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1856,15 +1860,15 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>26</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>27</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="45" t="s">
-        <v>28</v>
+      <c r="E20" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
@@ -2176,16 +2180,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="39"/>
+      <c r="A27" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="32"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2630,6 +2634,11 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2637,11 +2646,6 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2887,6 +2891,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="b4d09e2d-13db-4014-adac-1fd4c63dba3e">
@@ -2895,15 +2908,6 @@
     <TaxCatchAll xmlns="47a76c4d-629b-4983-b3be-1ba004174f0a" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2926,6 +2930,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4209C33D-ED08-404F-9B7A-29CD40C2ACA2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1FC233-9ECF-4A55-86D4-136E16072842}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2934,12 +2946,4 @@
     <ds:schemaRef ds:uri="47a76c4d-629b-4983-b3be-1ba004174f0a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4209C33D-ED08-404F-9B7A-29CD40C2ACA2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/assets/BTS SIO- Tableau de synthese - Epreuve E4 (1).xlsx
+++ b/assets/BTS SIO- Tableau de synthese - Epreuve E4 (1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/02c344eee5d41324/Documents/BTS/SLAM/HTML/Porte-folio correct/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{3F5C3543-ED6B-465B-ADCE-B7270B2BB3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{975F8598-A756-42BD-AE95-A81E500F2D86}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="13_ncr:1_{3F5C3543-ED6B-465B-ADCE-B7270B2BB3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6F3E57C-BA7A-44F7-9711-2DF902D69E3B}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$25</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,15 +39,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
   <si>
     <t xml:space="preserve">Tableau de synthèse des réalisations professionnelles </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N° candidat : </t>
   </si>
   <si>
     <t>Option :</t>
@@ -132,42 +129,12 @@
     <t>⮽ SLAM</t>
   </si>
   <si>
-    <t>SIO 1 - semestre 1 - Projet : Création d'une entreprise fictive</t>
-  </si>
-  <si>
     <t>Développement d'une application de gestion de commandes et de stock.</t>
   </si>
   <si>
-    <t>06/05/2024 au 26/06/2024</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
-    <t>Création de site</t>
-  </si>
-  <si>
-    <t>10/2023 au 02/2024</t>
-  </si>
-  <si>
-    <t>10/2023 au 06/2024</t>
-  </si>
-  <si>
-    <t>2023 - 2025</t>
-  </si>
-  <si>
-    <t>Création et entretien du portfolio</t>
-  </si>
-  <si>
-    <t>Veille technologique</t>
-  </si>
-  <si>
-    <t>Installation GLPI</t>
-  </si>
-  <si>
-    <t>01/2024 au 02/2024</t>
-  </si>
-  <si>
     <t>Centre de formation : IPSSI</t>
   </si>
   <si>
@@ -175,14 +142,75 @@
   </si>
   <si>
     <t>Adresse URL du portfolio : https://ovbd1.github.io/Portfolio/</t>
+  </si>
+  <si>
+    <t>Développement d'un site vitrine</t>
+  </si>
+  <si>
+    <t>Réalisation de l'inventaire</t>
+  </si>
+  <si>
+    <t>Réalisation et Conception d'une application web pour l'entreprise GSB</t>
+  </si>
+  <si>
+    <t>Réalisation et Conception d'une application mobile pour l'entreprise GSB</t>
+  </si>
+  <si>
+    <t>N° candidat : CYCLADE</t>
+  </si>
+  <si>
+    <t>01/10/23 au 01/02/24</t>
+  </si>
+  <si>
+    <t>Création d'une entreprise fictive</t>
+  </si>
+  <si>
+    <t>Réalisation et mise en production du portfolio</t>
+  </si>
+  <si>
+    <t>Installation GLPI et gestion de ticket</t>
+  </si>
+  <si>
+    <t>Mise en place d'outils pour veille technologique</t>
+  </si>
+  <si>
+    <t>06/05/24 au 26/06/24</t>
+  </si>
+  <si>
+    <t>Développement d'une console de création de documentation de base de données</t>
+  </si>
+  <si>
+    <t>Développement d'un application lourde et test d'une API</t>
+  </si>
+  <si>
+    <t>08/01/24 au 15/01/24</t>
+  </si>
+  <si>
+    <t>06/11/23 au 30/04/25</t>
+  </si>
+  <si>
+    <t>09/09/24 au 20/12/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/01/24 au 14/03/24 </t>
+  </si>
+  <si>
+    <t>28/10/24 au 27/01/24</t>
+  </si>
+  <si>
+    <t>27/01/24 au 30/06/24</t>
+  </si>
+  <si>
+    <t>23/10/23 au 30/04/25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -267,7 +295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -372,51 +400,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
     <border diagonalDown="1">
       <left style="medium">
         <color theme="2" tint="-0.749992370372631"/>
@@ -649,6 +632,73 @@
         <color theme="2" tint="-0.749992370372631"/>
       </top>
       <bottom style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </bottom>
       <diagonal/>
@@ -658,7 +708,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -681,10 +731,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -699,45 +746,78 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -747,53 +827,47 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1107,10 +1181,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ81"/>
+  <dimension ref="A1:AQ71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1132,7 +1206,7 @@
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
       <c r="G1" s="26" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="H1" s="26"/>
     </row>
@@ -1149,98 +1223,98 @@
       <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="45"/>
+      <c r="A3" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="28"/>
+      <c r="H3" s="34"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="10" t="s">
+      <c r="A4" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>23</v>
+      <c r="H4" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
+      <c r="A5" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="18" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="E7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="F7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="G7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="H7" s="15" t="s">
         <v>17</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>18</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -1279,16 +1353,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
+      <c r="A8" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1327,23 +1401,19 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="23" t="s">
-        <v>27</v>
-      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="17"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1382,19 +1452,19 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
+        <v>35</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="17" t="s">
+        <v>24</v>
+      </c>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1433,19 +1503,23 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="23" t="s">
-        <v>27</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="52"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1484,19 +1558,19 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
+        <v>37</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1535,21 +1609,19 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="23" t="s">
-        <v>27</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B13" s="19">
+        <v>45551</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="52"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1586,15 +1658,25 @@
       <c r="AP13"/>
       <c r="AQ13"/>
     </row>
-    <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14"/>
+    <row r="14" spans="1:43" s="2" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="52"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1631,15 +1713,25 @@
       <c r="AP14"/>
       <c r="AQ14"/>
     </row>
-    <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
+    <row r="15" spans="1:43" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="52"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1676,15 +1768,15 @@
       <c r="AP15"/>
       <c r="AQ15"/>
     </row>
-    <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="14"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="52"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1721,15 +1813,17 @@
       <c r="AP16"/>
       <c r="AQ16"/>
     </row>
-    <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
+    <row r="17" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="42"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1766,15 +1860,23 @@
       <c r="AP17"/>
       <c r="AQ17"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14"/>
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="52"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1811,17 +1913,21 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="32"/>
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="52"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1858,21 +1964,15 @@
       <c r="AP19"/>
       <c r="AQ19"/>
     </row>
-    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="14"/>
+    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1909,15 +2009,17 @@
       <c r="AP20"/>
       <c r="AQ20"/>
     </row>
-    <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
+    <row r="21" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="45"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -1955,14 +2057,22 @@
       <c r="AQ21"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="14"/>
+      <c r="A22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="52"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -2000,14 +2110,22 @@
       <c r="AQ22"/>
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="14"/>
+      <c r="A23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="52"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -2046,13 +2164,13 @@
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="14"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="52"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2089,15 +2207,15 @@
       <c r="AP24"/>
       <c r="AQ24"/>
     </row>
-    <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
+    <row r="25" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2134,471 +2252,29 @@
       <c r="AP25"/>
       <c r="AQ25"/>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="14"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
-      <c r="R26"/>
-      <c r="S26"/>
-      <c r="T26"/>
-      <c r="U26"/>
-      <c r="V26"/>
-      <c r="W26"/>
-      <c r="X26"/>
-      <c r="Y26"/>
-      <c r="Z26"/>
-      <c r="AA26"/>
-      <c r="AB26"/>
-      <c r="AC26"/>
-      <c r="AD26"/>
-      <c r="AE26"/>
-      <c r="AF26"/>
-      <c r="AG26"/>
-      <c r="AH26"/>
-      <c r="AI26"/>
-      <c r="AJ26"/>
-      <c r="AK26"/>
-      <c r="AL26"/>
-      <c r="AM26"/>
-      <c r="AN26"/>
-      <c r="AO26"/>
-      <c r="AP26"/>
-      <c r="AQ26"/>
-    </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="32"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-      <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27"/>
-      <c r="U27"/>
-      <c r="V27"/>
-      <c r="W27"/>
-      <c r="X27"/>
-      <c r="Y27"/>
-      <c r="Z27"/>
-      <c r="AA27"/>
-      <c r="AB27"/>
-      <c r="AC27"/>
-      <c r="AD27"/>
-      <c r="AE27"/>
-      <c r="AF27"/>
-      <c r="AG27"/>
-      <c r="AH27"/>
-      <c r="AI27"/>
-      <c r="AJ27"/>
-      <c r="AK27"/>
-      <c r="AL27"/>
-      <c r="AM27"/>
-      <c r="AN27"/>
-      <c r="AO27"/>
-      <c r="AP27"/>
-      <c r="AQ27"/>
-    </row>
-    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="14"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
-      <c r="R28"/>
-      <c r="S28"/>
-      <c r="T28"/>
-      <c r="U28"/>
-      <c r="V28"/>
-      <c r="W28"/>
-      <c r="X28"/>
-      <c r="Y28"/>
-      <c r="Z28"/>
-      <c r="AA28"/>
-      <c r="AB28"/>
-      <c r="AC28"/>
-      <c r="AD28"/>
-      <c r="AE28"/>
-      <c r="AF28"/>
-      <c r="AG28"/>
-      <c r="AH28"/>
-      <c r="AI28"/>
-      <c r="AJ28"/>
-      <c r="AK28"/>
-      <c r="AL28"/>
-      <c r="AM28"/>
-      <c r="AN28"/>
-      <c r="AO28"/>
-      <c r="AP28"/>
-      <c r="AQ28"/>
-    </row>
-    <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="14"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-      <c r="R29"/>
-      <c r="S29"/>
-      <c r="T29"/>
-      <c r="U29"/>
-      <c r="V29"/>
-      <c r="W29"/>
-      <c r="X29"/>
-      <c r="Y29"/>
-      <c r="Z29"/>
-      <c r="AA29"/>
-      <c r="AB29"/>
-      <c r="AC29"/>
-      <c r="AD29"/>
-      <c r="AE29"/>
-      <c r="AF29"/>
-      <c r="AG29"/>
-      <c r="AH29"/>
-      <c r="AI29"/>
-      <c r="AJ29"/>
-      <c r="AK29"/>
-      <c r="AL29"/>
-      <c r="AM29"/>
-      <c r="AN29"/>
-      <c r="AO29"/>
-      <c r="AP29"/>
-      <c r="AQ29"/>
-    </row>
-    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="14"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30"/>
-      <c r="T30"/>
-      <c r="U30"/>
-      <c r="V30"/>
-      <c r="W30"/>
-      <c r="X30"/>
-      <c r="Y30"/>
-      <c r="Z30"/>
-      <c r="AA30"/>
-      <c r="AB30"/>
-      <c r="AC30"/>
-      <c r="AD30"/>
-      <c r="AE30"/>
-      <c r="AF30"/>
-      <c r="AG30"/>
-      <c r="AH30"/>
-      <c r="AI30"/>
-      <c r="AJ30"/>
-      <c r="AK30"/>
-      <c r="AL30"/>
-      <c r="AM30"/>
-      <c r="AN30"/>
-      <c r="AO30"/>
-      <c r="AP30"/>
-      <c r="AQ30"/>
-    </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="14"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
-      <c r="R31"/>
-      <c r="S31"/>
-      <c r="T31"/>
-      <c r="U31"/>
-      <c r="V31"/>
-      <c r="W31"/>
-      <c r="X31"/>
-      <c r="Y31"/>
-      <c r="Z31"/>
-      <c r="AA31"/>
-      <c r="AB31"/>
-      <c r="AC31"/>
-      <c r="AD31"/>
-      <c r="AE31"/>
-      <c r="AF31"/>
-      <c r="AG31"/>
-      <c r="AH31"/>
-      <c r="AI31"/>
-      <c r="AJ31"/>
-      <c r="AK31"/>
-      <c r="AL31"/>
-      <c r="AM31"/>
-      <c r="AN31"/>
-      <c r="AO31"/>
-      <c r="AP31"/>
-      <c r="AQ31"/>
-    </row>
-    <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="14"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
-      <c r="R32"/>
-      <c r="S32"/>
-      <c r="T32"/>
-      <c r="U32"/>
-      <c r="V32"/>
-      <c r="W32"/>
-      <c r="X32"/>
-      <c r="Y32"/>
-      <c r="Z32"/>
-      <c r="AA32"/>
-      <c r="AB32"/>
-      <c r="AC32"/>
-      <c r="AD32"/>
-      <c r="AE32"/>
-      <c r="AF32"/>
-      <c r="AG32"/>
-      <c r="AH32"/>
-      <c r="AI32"/>
-      <c r="AJ32"/>
-      <c r="AK32"/>
-      <c r="AL32"/>
-      <c r="AM32"/>
-      <c r="AN32"/>
-      <c r="AO32"/>
-      <c r="AP32"/>
-      <c r="AQ32"/>
-    </row>
-    <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="14"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
-      <c r="Q33"/>
-      <c r="R33"/>
-      <c r="S33"/>
-      <c r="T33"/>
-      <c r="U33"/>
-      <c r="V33"/>
-      <c r="W33"/>
-      <c r="X33"/>
-      <c r="Y33"/>
-      <c r="Z33"/>
-      <c r="AA33"/>
-      <c r="AB33"/>
-      <c r="AC33"/>
-      <c r="AD33"/>
-      <c r="AE33"/>
-      <c r="AF33"/>
-      <c r="AG33"/>
-      <c r="AH33"/>
-      <c r="AI33"/>
-      <c r="AJ33"/>
-      <c r="AK33"/>
-      <c r="AL33"/>
-      <c r="AM33"/>
-      <c r="AN33"/>
-      <c r="AO33"/>
-      <c r="AP33"/>
-      <c r="AQ33"/>
-    </row>
-    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="16"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
-      <c r="R34"/>
-      <c r="S34"/>
-      <c r="T34"/>
-      <c r="U34"/>
-      <c r="V34"/>
-      <c r="W34"/>
-      <c r="X34"/>
-      <c r="Y34"/>
-      <c r="Z34"/>
-      <c r="AA34"/>
-      <c r="AB34"/>
-      <c r="AC34"/>
-      <c r="AD34"/>
-      <c r="AE34"/>
-      <c r="AF34"/>
-      <c r="AG34"/>
-      <c r="AH34"/>
-      <c r="AI34"/>
-      <c r="AJ34"/>
-      <c r="AK34"/>
-      <c r="AL34"/>
-      <c r="AM34"/>
-      <c r="AN34"/>
-      <c r="AO34"/>
-      <c r="AP34"/>
-      <c r="AQ34"/>
-    </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
-      <c r="U35"/>
-      <c r="V35"/>
-      <c r="W35"/>
-      <c r="X35"/>
-      <c r="Y35"/>
-      <c r="Z35"/>
-      <c r="AA35"/>
-      <c r="AB35"/>
-      <c r="AC35"/>
-      <c r="AD35"/>
-      <c r="AE35"/>
-      <c r="AF35"/>
-      <c r="AG35"/>
-      <c r="AH35"/>
-      <c r="AI35"/>
-      <c r="AJ35"/>
-      <c r="AK35"/>
-      <c r="AL35"/>
-      <c r="AM35"/>
-      <c r="AN35"/>
-      <c r="AO35"/>
-      <c r="AP35"/>
-      <c r="AQ35"/>
-    </row>
-    <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="49" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="50" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="51" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2622,35 +2298,25 @@
     <row r="69" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="70" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="71" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A5:H5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A5:H5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -2891,15 +2557,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="b4d09e2d-13db-4014-adac-1fd4c63dba3e">
@@ -2908,6 +2565,15 @@
     <TaxCatchAll xmlns="47a76c4d-629b-4983-b3be-1ba004174f0a" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2930,20 +2596,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1FC233-9ECF-4A55-86D4-136E16072842}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b4d09e2d-13db-4014-adac-1fd4c63dba3e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="47a76c4d-629b-4983-b3be-1ba004174f0a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4209C33D-ED08-404F-9B7A-29CD40C2ACA2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1FC233-9ECF-4A55-86D4-136E16072842}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b4d09e2d-13db-4014-adac-1fd4c63dba3e"/>
-    <ds:schemaRef ds:uri="47a76c4d-629b-4983-b3be-1ba004174f0a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>